--- a/dssv.xlsx
+++ b/dssv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 MyData\MyApps\International_Finance_Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EE6E55-09EA-4244-B173-C9125ACFB1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5714153B-7458-4CEC-8542-CBCCD9BDB8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,7 +55,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,12 +63,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,13 +367,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -373,6 +398,186 @@
         <v>56</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>23030112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>23030159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>23030101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>23030154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>23030104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>23030113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>23030072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>23030130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>23030247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>23030100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>23030122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>23030244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>23030220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>23030230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>23030073</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>23030034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>23030002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>23030025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>23030084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23030118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>23030083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>23030075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>23030026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>23030148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>23030139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>23030087</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>23030152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>23030114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>23030116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>23030115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>23030169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>23030176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>23030180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>23030125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>23030186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>23030153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
